--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>住房公积金</t>
   </si>
@@ -221,17 +221,20 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1212</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>11111</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>fb</t>
+    <t>121</t>
+  </si>
+  <si>
+    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -677,35 +680,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="5" width="12.375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="5" width="12.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="20.25" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="12.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="6" width="12.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="6" width="10.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="6" width="14.25" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="6" width="14.625" collapsed="false"/>
-    <col min="10" max="11" customWidth="true" style="6" width="11.625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="6" width="16.125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="6" width="10.625" collapsed="false"/>
-    <col min="14" max="15" customWidth="true" style="6" width="15.75" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="6" width="9.5" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="6" width="14.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="11.625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="11" width="20.5" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="18.375" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="6" width="9.0" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="6" width="11.625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="20.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="12.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="12.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="10.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="14.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="6" width="14.625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="6" width="11.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="6" width="16.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="6" width="10.625" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="6" width="15.75" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="6" width="9.5" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="6" width="14.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="11.625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="11" width="20.5" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="6" width="9.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="6" width="11.625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
@@ -781,18 +784,21 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -831,7 +837,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="40.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
